--- a/output/2017-12-01 to 2018-01-01.xlsx
+++ b/output/2017-12-01 to 2018-01-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -107,6 +107,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-104-01</t>
   </si>
   <si>
@@ -126,6 +129,27 @@
   </si>
   <si>
     <t>2016-10-103-01</t>
+  </si>
+  <si>
+    <t>['Alex Hill', 'Hoff, Jonathan Edward']</t>
+  </si>
+  <si>
+    <t>['Nicole Chan', 'Berk CAGILCI', 'Olivas Hernandez, Daniel', 'Yhoas Olivas Hernandez', 'Berk Cagilc']</t>
+  </si>
+  <si>
+    <t>['Jonathan Hoff']</t>
+  </si>
+  <si>
+    <t>['Hang Cui']</t>
+  </si>
+  <si>
+    <t>['Chien-Ying Chen']</t>
+  </si>
+  <si>
+    <t>['Zhenghe Shangguan']</t>
+  </si>
+  <si>
+    <t>['Usman Syed']</t>
   </si>
   <si>
     <t>cfop_KWIAT</t>
@@ -535,10 +559,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>30.58823529411765</v>
+        <v>35.63636363636363</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -561,7 +585,7 @@
         <v>32.5</v>
       </c>
       <c r="D3">
-        <v>25.49019607843137</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -584,7 +608,7 @@
         <v>22.5</v>
       </c>
       <c r="D4">
-        <v>17.64705882352941</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -607,7 +631,7 @@
         <v>13.5</v>
       </c>
       <c r="D5">
-        <v>10.58823529411765</v>
+        <v>9.818181818181818</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -630,7 +654,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>8.627450980392156</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -653,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>7.058823529411764</v>
+        <v>6.545454545454546</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -700,7 +724,7 @@
         <v>64</v>
       </c>
       <c r="D2">
-        <v>50.19607843137255</v>
+        <v>46.54545454545455</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -711,10 +735,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D3">
-        <v>30.58823529411765</v>
+        <v>35.63636363636363</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -728,7 +752,7 @@
         <v>13.5</v>
       </c>
       <c r="D4">
-        <v>10.58823529411765</v>
+        <v>9.818181818181818</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -742,7 +766,7 @@
         <v>11</v>
       </c>
       <c r="D5">
-        <v>8.627450980392156</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -777,10 +801,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D2">
-        <v>42.65010351966874</v>
+        <v>43.21223709369025</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -794,7 +818,7 @@
         <v>75</v>
       </c>
       <c r="D3">
-        <v>31.05590062111801</v>
+        <v>28.68068833652008</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -805,10 +829,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D4">
-        <v>16.14906832298137</v>
+        <v>18.73804971319312</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -822,7 +846,7 @@
         <v>13.5</v>
       </c>
       <c r="D5">
-        <v>5.590062111801243</v>
+        <v>5.162523900573614</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -836,7 +860,7 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>4.554865424430642</v>
+        <v>4.206500956022944</v>
       </c>
     </row>
   </sheetData>
@@ -846,13 +870,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
@@ -862,103 +886,127 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D2">
-        <v>30.58823529411765</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>35.63636363636363</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>32.5</v>
       </c>
       <c r="D3">
-        <v>25.49019607843137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>23.63636363636364</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>19</v>
       </c>
       <c r="D4">
-        <v>14.90196078431373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>13.81818181818182</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>13.5</v>
       </c>
       <c r="D5">
-        <v>10.58823529411765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9.818181818181818</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>8.627450980392156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>7.058823529411764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>6.545454545454546</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>3.5</v>
       </c>
       <c r="D8">
-        <v>2.745098039215686</v>
+        <v>2.545454545454545</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -990,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D2">
-        <v>35.21444695259594</v>
+        <v>40.57971014492754</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1004,13 +1052,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>65</v>
       </c>
       <c r="D3">
-        <v>29.34537246049661</v>
+        <v>26.91511387163561</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1018,13 +1066,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>45</v>
       </c>
       <c r="D4">
-        <v>20.31602708803612</v>
+        <v>18.63354037267081</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1032,13 +1080,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>13.5</v>
       </c>
       <c r="D5">
-        <v>6.094808126410835</v>
+        <v>5.590062111801243</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1046,13 +1094,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>4.966139954853273</v>
+        <v>4.554865424430642</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1060,13 +1108,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7">
-        <v>4.063205417607223</v>
+        <v>3.726708074534161</v>
       </c>
     </row>
   </sheetData>
